--- a/server/reports/bid_ARMBUY06_51.xlsx
+++ b/server/reports/bid_ARMBUY06_51.xlsx
@@ -73,7 +73,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd.mm.yyyy"/>
-    <numFmt numFmtId="165" formatCode="# ##0.##0"/>
+    <numFmt numFmtId="165" formatCode="# ##0"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -441,7 +441,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="18" width="10.7109375" customWidth="1"/>
+    <col min="3" max="18" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
